--- a/Documentação/planilha de risco.xlsx
+++ b/Documentação/planilha de risco.xlsx
@@ -5,18 +5,21 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joaos\OneDrive\Faculdade\PesquisaInovação\GitHub\boxzard_Git\Documentação\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joaop\OneDrive\Documentos\Faculdade\PesquisaInovação\GitHub\boxzard_Git\Documentação\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{8A703D77-B6AA-4487-846A-66D45C64E9ED}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{333837F0-68C2-4226-89FB-D376647F2856}"/>
+  <xr:revisionPtr revIDLastSave="7" documentId="13_ncr:1_{8A703D77-B6AA-4487-846A-66D45C64E9ED}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{83CA6EBB-4410-4A4B-8943-BC2268D94B1B}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="7548" activeTab="1" xr2:uid="{D85A2CBC-A3A5-4127-94E7-5E8B7C92C6C0}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{D85A2CBC-A3A5-4127-94E7-5E8B7C92C6C0}"/>
   </bookViews>
   <sheets>
     <sheet name="Riscos" sheetId="5" r:id="rId1"/>
     <sheet name="Matriz de Risco" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191028"/>
+  <customWorkbookViews>
+    <customWorkbookView name="teste" guid="{B4C419AC-7B7E-4A15-A9FB-D246A1EA40A7}" includePrintSettings="0" includeHiddenRowCol="0" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1382" windowHeight="784" activeSheetId="5"/>
+  </customWorkbookViews>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -766,26 +769,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FCE25B2-A980-4FB0-A8AC-9C1EC1193C6D}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="52.33203125" customWidth="1"/>
+    <col min="2" max="2" width="52.28515625" customWidth="1"/>
     <col min="3" max="3" width="20" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.44140625" customWidth="1"/>
-    <col min="5" max="5" width="16.6640625" customWidth="1"/>
-    <col min="6" max="6" width="13.5546875" customWidth="1"/>
+    <col min="4" max="4" width="12.42578125" customWidth="1"/>
+    <col min="5" max="5" width="16.7109375" customWidth="1"/>
+    <col min="6" max="6" width="13.5703125" customWidth="1"/>
     <col min="7" max="7" width="63" customWidth="1"/>
-    <col min="8" max="9" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.88671875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="23" t="s">
         <v>27</v>
       </c>
@@ -796,7 +802,7 @@
       <c r="F1" s="23"/>
       <c r="G1" s="23"/>
     </row>
-    <row r="2" spans="1:7" ht="34.799999999999997" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="36" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
@@ -819,7 +825,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="12">
         <v>1</v>
       </c>
@@ -842,7 +848,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="12">
         <v>3</v>
       </c>
@@ -865,7 +871,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="12">
         <v>4</v>
       </c>
@@ -888,7 +894,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="12">
         <v>5</v>
       </c>
@@ -911,7 +917,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="12">
         <v>6</v>
       </c>
@@ -934,7 +940,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A8" s="12">
         <v>7</v>
       </c>
@@ -958,10 +964,16 @@
       </c>
     </row>
   </sheetData>
+  <customSheetViews>
+    <customSheetView guid="{B4C419AC-7B7E-4A15-A9FB-D246A1EA40A7}" showPageBreaks="1">
+      <selection activeCell="C4" sqref="C4"/>
+    </customSheetView>
+  </customSheetViews>
   <mergeCells count="1">
     <mergeCell ref="A1:G1"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" scale="72" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -969,24 +981,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64CF2039-A047-4FE5-B6FD-01FF1906349A}">
   <dimension ref="B2:M14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="12.88671875" customWidth="1"/>
-    <col min="3" max="3" width="17.5546875" customWidth="1"/>
-    <col min="4" max="4" width="15.33203125" customWidth="1"/>
-    <col min="5" max="5" width="20.109375" customWidth="1"/>
-    <col min="6" max="6" width="14.5546875" customWidth="1"/>
-    <col min="9" max="9" width="12.109375" customWidth="1"/>
-    <col min="10" max="10" width="15.33203125" customWidth="1"/>
-    <col min="11" max="11" width="15.44140625" customWidth="1"/>
-    <col min="12" max="12" width="13.5546875" customWidth="1"/>
+    <col min="2" max="2" width="12.85546875" customWidth="1"/>
+    <col min="3" max="3" width="17.5703125" customWidth="1"/>
+    <col min="4" max="4" width="15.28515625" customWidth="1"/>
+    <col min="5" max="5" width="20.140625" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" customWidth="1"/>
+    <col min="9" max="9" width="12.140625" customWidth="1"/>
+    <col min="10" max="10" width="15.28515625" customWidth="1"/>
+    <col min="11" max="11" width="15.42578125" customWidth="1"/>
+    <col min="12" max="12" width="13.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B2" s="24" t="s">
         <v>11</v>
       </c>
@@ -994,7 +1006,7 @@
       <c r="D2" s="25"/>
       <c r="E2" s="26"/>
     </row>
-    <row r="3" spans="2:13" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:13" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
         <v>12</v>
       </c>
@@ -1008,7 +1020,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="2:13" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:13" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="4" t="s">
         <v>28</v>
       </c>
@@ -1022,7 +1034,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="2:13" ht="25.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:13" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="4" t="s">
         <v>29</v>
       </c>
@@ -1040,7 +1052,7 @@
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
     </row>
-    <row r="6" spans="2:13" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:13" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="4" t="s">
         <v>30</v>
       </c>
@@ -1058,40 +1070,45 @@
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
     </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
     </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:13" x14ac:dyDescent="0.25">
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
     </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
     </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
       <c r="M10" s="1"/>
     </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
       <c r="M11" s="1"/>
     </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
       <c r="M12" s="1"/>
     </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
       <c r="M13" s="1"/>
     </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
       <c r="M14" s="1"/>
     </row>
   </sheetData>
+  <customSheetViews>
+    <customSheetView guid="{B4C419AC-7B7E-4A15-A9FB-D246A1EA40A7}">
+      <selection activeCell="D11" sqref="D11"/>
+    </customSheetView>
+  </customSheetViews>
   <mergeCells count="1">
     <mergeCell ref="B2:E2"/>
   </mergeCells>
